--- a/ui-testsuite/src/main/resources/TestData/Order_APJ_Renewal_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_APJ_Renewal_Reconciled.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>20/06/2016</t>
+  </si>
+  <si>
+    <t>0512925574</t>
+  </si>
+  <si>
+    <t>24/06/2016</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -458,6 +464,11 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1229,10 +1240,10 @@
         <v>107</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>93</v>
@@ -1312,7 +1323,7 @@
         <v>1065483895</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>108</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_APJ_Renewal_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_APJ_Renewal_Reconciled.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>24/06/2016</t>
+  </si>
+  <si>
+    <t>0026749941</t>
+  </si>
+  <si>
+    <t>18/08/2016</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -464,6 +470,11 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1240,10 +1251,10 @@
         <v>107</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>93</v>
@@ -1323,7 +1334,7 @@
         <v>1065483895</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>108</v>
